--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yson\Desktop\tobuse_automation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AFABD0-5F06-41C7-ACE8-CE03F53463B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D027DC79-7C8C-4097-8B5B-5E85E37ABAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{38E6584B-9916-4055-B829-DFEEA4F015FA}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="8170" xr2:uid="{38E6584B-9916-4055-B829-DFEEA4F015FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t xml:space="preserve">patientid </t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t xml:space="preserve">patient is a 45 yr old male undergoing a CABG procedure. Cardiac risk factors include current smoker smoking around 45 ppd and a current user of etoh and illicit substances. </t>
   </si>
   <si>
@@ -52,19 +49,147 @@
   </si>
   <si>
     <t xml:space="preserve">patient is 76 year old female and is healthy and in good shape. </t>
+  </si>
+  <si>
+    <t>Patient is a 60-year-old female undergoing hip replacement surgery. Cardiac risk factors include a history of hypertension</t>
+  </si>
+  <si>
+    <t>This patient is a 29-year-old male with a history of asthma. He occasionally vapes but claims not to smoke traditional cigarettes. Cardiac risk factors: none. </t>
+  </si>
+  <si>
+    <t>The patient is a 52-year-old female with a BMI of 32. She has a family history of coronary artery disease and is currently on cholesterol medication.</t>
+  </si>
+  <si>
+    <t>Patient is a 40-year-old male, ex-smoker who quit two years ago. He has a history of hyperlipidemia but has no other cardiac risk factors</t>
+  </si>
+  <si>
+    <t>A 35-year-old female presents for routine check-up. She has a documented history of anxiety and has been a daily cigarette smoker for the past 15 years.</t>
+  </si>
+  <si>
+    <t>This patient is a 48-year-old male with chronic back pain. He has a history of intermittent smoking but has not smoked in over a year. Cardiac risk factors: hypertension.</t>
+  </si>
+  <si>
+    <t>Patient is a 27-year-old female who recently started a new job that increased her stress levels. She began smoking again and currently smokes 1 pack a week. </t>
+  </si>
+  <si>
+    <t>The patient is a 75-year-old male with advanced COPD. He has been a heavy smoker for many years. He also has a history of atrial fibrillation.</t>
+  </si>
+  <si>
+    <t>Patient is a 22-year-old female who occasionally smokes marijuana but does not smoke tobacco. Cardiac risk factors: none.</t>
+  </si>
+  <si>
+    <t>This patient is a 50-year-old male with a history of diabetes. He reports he has never smoked but is concerned about other risk factors. </t>
+  </si>
+  <si>
+    <t>Patient is a 34-year-old female who recently quit smoking after a long struggle. She has a family history of heart disease. </t>
+  </si>
+  <si>
+    <t>A 70-year-old male presents with chest pain. He has a significant smoking history of 2 packs per day for 40 years. Cardiac risk factors: high cholesterol.</t>
+  </si>
+  <si>
+    <t>This patient is a 31-year-old female with mild depression who has not smoked in over three years. Cardiac risk factors: obesity</t>
+  </si>
+  <si>
+    <t>Patient is a 45-year-old male who has a strong addiction to nicotine and smokes around 30 cigarettes a day. He also has a history of hypertension.</t>
+  </si>
+  <si>
+    <t>The patient is a 55-year-old female with a sedentary lifestyle. She has never smoked and has no significant cardiac history.</t>
+  </si>
+  <si>
+    <t>Patient is a 41-year-old male who works as a firefighter and smokes socially on weekends. Notable cardiac risk factors: none.</t>
+  </si>
+  <si>
+    <t>This patient is a 39-year-old female with a history of anxiety and depression. She does not smoke or use tobacco in any form. </t>
+  </si>
+  <si>
+    <t>A 60-year-old male with a long history of smoking and recent diagnosis of lung cancer. His cardiac check-up indicates hypertension.</t>
+  </si>
+  <si>
+    <t>Patient is a 25-year-old female who reports smoking e-cigarettes but has never smoked traditional cigarettes. Cardiac risk factors: none. </t>
+  </si>
+  <si>
+    <t>The patient is a 72-year-old male with multiple chronic health issues. He has never smoked a day in his life.</t>
+  </si>
+  <si>
+    <t>Patient is a 48-year-old female with a stressful job. She has been smoking 10-15 cigarettes a day for the past 10 years. Cardiac risk factors: obesity.</t>
+  </si>
+  <si>
+    <t>This patient is a 30-year-old male who grew up in a smoking household but never picked up the habit himself. He exhibits no cardiac risk factors.</t>
+  </si>
+  <si>
+    <t>Patient is a 58-year-old female with a history of lupus. She smoked one pack per day for 20 years but quit last year.</t>
+  </si>
+  <si>
+    <t>A 36-year-old male presents with chronic fatigue. He smokes marijuana daily but claims never to have smoked cigarettes. Cardiac risk factors: none.</t>
+  </si>
+  <si>
+    <t>The patient is a 46-year-old female with a recent bout of pneumonia. She has never smoked and has no history of heart disease.</t>
+  </si>
+  <si>
+    <t>Patient, a 50-year-old male, has been smoking cigarettes and cigars for over 30 years and is now experiencing respiratory issues. </t>
+  </si>
+  <si>
+    <t>This patient is a 42-year-old female who works at a hospital and abstains from smoking. Her only risk factor is a family history of breast cancer.</t>
+  </si>
+  <si>
+    <t>Patient is a 60-year-old male with severe COPD who continues to smoke 10 cigarettes daily despite the diagnosis. </t>
+  </si>
+  <si>
+    <t>A 28-year-old female with a history of migraines reports she has never smoked and avoids any form of tobacco.</t>
+  </si>
+  <si>
+    <t>The patient is a 54-year-old male who reports quitting smoking ten years ago. His only known cardiac risk factor is high cholesterol.</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>currsmok</t>
+  </si>
+  <si>
+    <t>lives with wife, smoke: 2 p q 5 days, 60+ years etoh: denies illicit drug use: THC. This is a 69 old patient who is diagnosed with LAD. He has a 456 bpm, w/ paced rhythm. He continues to smoke. We will sit down with him to talk about his cardiac risks.</t>
+  </si>
+  <si>
+    <t>former tobacco use current alcohol use yes diabetes</t>
+  </si>
+  <si>
+    <t>risk factors include current smoke previous treatment with stroke</t>
+  </si>
+  <si>
+    <t>patient claims he has quit smoking</t>
+  </si>
+  <si>
+    <t>patient needs to quit smoking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he was admitted to the ICU. He said that he is committed to quitting smoking. </t>
+  </si>
+  <si>
+    <t>no history of tobacco use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tob Marital Status: MARRIED NOK : Primary NOK: Hello my name is wee relation: SPOUSE </t>
+  </si>
+  <si>
+    <t>ReportText</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF334155"/>
+      <name val="__inter_53dc39"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,8 +212,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,55 +529,459 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57898A2B-2A32-4BAB-808E-FC7822859ED1}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
         <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>